--- a/trunk/doc2/前期准备/战斗系统数值设计.xlsx
+++ b/trunk/doc2/前期准备/战斗系统数值设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="武将" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="伤害模拟" sheetId="8" r:id="rId9"/>
     <sheet name="状态" sheetId="12" r:id="rId10"/>
     <sheet name="TEMP" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId12"/>
+    <sheet name="武将资源" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">武将!$B$2:$V$685</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="1469">
   <si>
     <t>ID</t>
   </si>
@@ -5589,6 +5589,18 @@
 造成200%的策略伤害
 被攻击者100%混乱1回合</t>
     <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6293,7 +6305,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6624,13 +6636,13 @@
     <xf numFmtId="0" fontId="43" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6642,34 +6654,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6693,13 +6714,19 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7007,7 +7034,7 @@
   <dimension ref="A1:V685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60671,7 +60698,7 @@
   <dimension ref="A2:P114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+      <selection activeCell="B2" sqref="B2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -63165,14 +63192,2468 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C408"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <cols>
+    <col min="2" max="2" width="9.75" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="136" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="134">
+        <v>1</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="134">
+        <v>2</v>
+      </c>
+      <c r="C4" s="132"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="134">
+        <v>3</v>
+      </c>
+      <c r="C5" s="132"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="134">
+        <v>4</v>
+      </c>
+      <c r="C6" s="132"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="134">
+        <v>5</v>
+      </c>
+      <c r="C7" s="132"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="134">
+        <v>6</v>
+      </c>
+      <c r="C8" s="132"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="134">
+        <v>7</v>
+      </c>
+      <c r="C9" s="132"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="134">
+        <v>8</v>
+      </c>
+      <c r="C10" s="132"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="134">
+        <v>9</v>
+      </c>
+      <c r="C11" s="132"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="134">
+        <v>10</v>
+      </c>
+      <c r="C12" s="132"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="134">
+        <v>11</v>
+      </c>
+      <c r="C13" s="132"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="134">
+        <v>12</v>
+      </c>
+      <c r="C14" s="132"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="134">
+        <v>13</v>
+      </c>
+      <c r="C15" s="132"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="134">
+        <v>14</v>
+      </c>
+      <c r="C16" s="132"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="134">
+        <v>15</v>
+      </c>
+      <c r="C17" s="132"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="134">
+        <v>16</v>
+      </c>
+      <c r="C18" s="132"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="134">
+        <v>17</v>
+      </c>
+      <c r="C19" s="132"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="134">
+        <v>18</v>
+      </c>
+      <c r="C20" s="132"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="134">
+        <v>19</v>
+      </c>
+      <c r="C21" s="132"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="134">
+        <v>20</v>
+      </c>
+      <c r="C22" s="132"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="134">
+        <v>21</v>
+      </c>
+      <c r="C23" s="132"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="134">
+        <v>22</v>
+      </c>
+      <c r="C24" s="132"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="134">
+        <v>23</v>
+      </c>
+      <c r="C25" s="132"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="134">
+        <v>24</v>
+      </c>
+      <c r="C26" s="132"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="134">
+        <v>25</v>
+      </c>
+      <c r="C27" s="132"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="134">
+        <v>26</v>
+      </c>
+      <c r="C28" s="132"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="134">
+        <v>27</v>
+      </c>
+      <c r="C29" s="132"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="134">
+        <v>28</v>
+      </c>
+      <c r="C30" s="132"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="134">
+        <v>29</v>
+      </c>
+      <c r="C31" s="132"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="134">
+        <v>30</v>
+      </c>
+      <c r="C32" s="132"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="134">
+        <v>31</v>
+      </c>
+      <c r="C33" s="132"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="134">
+        <v>32</v>
+      </c>
+      <c r="C34" s="132"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="134">
+        <v>33</v>
+      </c>
+      <c r="C35" s="132"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="134">
+        <v>34</v>
+      </c>
+      <c r="C36" s="132"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="134">
+        <v>35</v>
+      </c>
+      <c r="C37" s="132"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="134">
+        <v>36</v>
+      </c>
+      <c r="C38" s="132"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="134">
+        <v>37</v>
+      </c>
+      <c r="C39" s="132"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="134">
+        <v>38</v>
+      </c>
+      <c r="C40" s="132"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="134">
+        <v>39</v>
+      </c>
+      <c r="C41" s="132"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="134">
+        <v>40</v>
+      </c>
+      <c r="C42" s="132"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="134">
+        <v>41</v>
+      </c>
+      <c r="C43" s="132"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="134">
+        <v>42</v>
+      </c>
+      <c r="C44" s="132"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="134">
+        <v>43</v>
+      </c>
+      <c r="C45" s="132"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="134">
+        <v>44</v>
+      </c>
+      <c r="C46" s="132"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="134">
+        <v>45</v>
+      </c>
+      <c r="C47" s="132"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="134">
+        <v>46</v>
+      </c>
+      <c r="C48" s="132"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="134">
+        <v>47</v>
+      </c>
+      <c r="C49" s="132"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="134">
+        <v>48</v>
+      </c>
+      <c r="C50" s="132"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="134">
+        <v>49</v>
+      </c>
+      <c r="C51" s="132"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="134">
+        <v>50</v>
+      </c>
+      <c r="C52" s="132"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="134">
+        <v>51</v>
+      </c>
+      <c r="C53" s="132"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="134">
+        <v>52</v>
+      </c>
+      <c r="C54" s="132"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="134">
+        <v>53</v>
+      </c>
+      <c r="C55" s="132"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="134">
+        <v>54</v>
+      </c>
+      <c r="C56" s="132"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="134">
+        <v>55</v>
+      </c>
+      <c r="C57" s="132"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="134">
+        <v>56</v>
+      </c>
+      <c r="C58" s="132"/>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="134">
+        <v>57</v>
+      </c>
+      <c r="C59" s="132"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="134">
+        <v>58</v>
+      </c>
+      <c r="C60" s="132"/>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="134">
+        <v>59</v>
+      </c>
+      <c r="C61" s="132"/>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="134">
+        <v>60</v>
+      </c>
+      <c r="C62" s="132"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="134">
+        <v>61</v>
+      </c>
+      <c r="C63" s="132"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="134">
+        <v>62</v>
+      </c>
+      <c r="C64" s="132"/>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="134">
+        <v>63</v>
+      </c>
+      <c r="C65" s="132"/>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="134">
+        <v>64</v>
+      </c>
+      <c r="C66" s="132"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="134">
+        <v>65</v>
+      </c>
+      <c r="C67" s="132"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="134">
+        <v>66</v>
+      </c>
+      <c r="C68" s="132"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="134">
+        <v>67</v>
+      </c>
+      <c r="C69" s="132"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="134">
+        <v>68</v>
+      </c>
+      <c r="C70" s="132"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="134">
+        <v>69</v>
+      </c>
+      <c r="C71" s="132"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="134">
+        <v>70</v>
+      </c>
+      <c r="C72" s="132"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="134">
+        <v>71</v>
+      </c>
+      <c r="C73" s="132"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="134">
+        <v>72</v>
+      </c>
+      <c r="C74" s="132"/>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="134">
+        <v>73</v>
+      </c>
+      <c r="C75" s="132"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="134">
+        <v>74</v>
+      </c>
+      <c r="C76" s="132"/>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="134">
+        <v>75</v>
+      </c>
+      <c r="C77" s="132"/>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="134">
+        <v>76</v>
+      </c>
+      <c r="C78" s="132"/>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="134">
+        <v>77</v>
+      </c>
+      <c r="C79" s="132"/>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="134">
+        <v>78</v>
+      </c>
+      <c r="C80" s="132"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="134">
+        <v>79</v>
+      </c>
+      <c r="C81" s="132"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="134">
+        <v>80</v>
+      </c>
+      <c r="C82" s="132"/>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="134">
+        <v>81</v>
+      </c>
+      <c r="C83" s="132"/>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="134">
+        <v>82</v>
+      </c>
+      <c r="C84" s="132"/>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="134">
+        <v>83</v>
+      </c>
+      <c r="C85" s="132"/>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="134">
+        <v>84</v>
+      </c>
+      <c r="C86" s="132"/>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="134">
+        <v>85</v>
+      </c>
+      <c r="C87" s="132"/>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="134">
+        <v>86</v>
+      </c>
+      <c r="C88" s="132"/>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="134">
+        <v>87</v>
+      </c>
+      <c r="C89" s="132"/>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="134">
+        <v>88</v>
+      </c>
+      <c r="C90" s="132"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="134">
+        <v>89</v>
+      </c>
+      <c r="C91" s="132"/>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="134">
+        <v>90</v>
+      </c>
+      <c r="C92" s="132"/>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="134">
+        <v>91</v>
+      </c>
+      <c r="C93" s="132"/>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="134">
+        <v>92</v>
+      </c>
+      <c r="C94" s="132"/>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="134">
+        <v>93</v>
+      </c>
+      <c r="C95" s="132"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="134">
+        <v>94</v>
+      </c>
+      <c r="C96" s="132"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="134">
+        <v>95</v>
+      </c>
+      <c r="C97" s="132"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="134">
+        <v>96</v>
+      </c>
+      <c r="C98" s="132"/>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="134">
+        <v>97</v>
+      </c>
+      <c r="C99" s="132"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="134">
+        <v>98</v>
+      </c>
+      <c r="C100" s="132"/>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="134">
+        <v>99</v>
+      </c>
+      <c r="C101" s="132"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="134">
+        <v>100</v>
+      </c>
+      <c r="C102" s="132"/>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="134">
+        <v>101</v>
+      </c>
+      <c r="C103" s="132"/>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="134">
+        <v>102</v>
+      </c>
+      <c r="C104" s="132"/>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="134">
+        <v>103</v>
+      </c>
+      <c r="C105" s="132"/>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="134">
+        <v>104</v>
+      </c>
+      <c r="C106" s="132"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="134">
+        <v>105</v>
+      </c>
+      <c r="C107" s="132"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="134">
+        <v>106</v>
+      </c>
+      <c r="C108" s="132"/>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="134">
+        <v>107</v>
+      </c>
+      <c r="C109" s="132"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="134">
+        <v>108</v>
+      </c>
+      <c r="C110" s="132"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="134">
+        <v>109</v>
+      </c>
+      <c r="C111" s="132"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="134">
+        <v>110</v>
+      </c>
+      <c r="C112" s="132"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="134">
+        <v>111</v>
+      </c>
+      <c r="C113" s="132"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="134">
+        <v>112</v>
+      </c>
+      <c r="C114" s="132"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="134">
+        <v>113</v>
+      </c>
+      <c r="C115" s="132"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="134">
+        <v>114</v>
+      </c>
+      <c r="C116" s="132"/>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="134">
+        <v>115</v>
+      </c>
+      <c r="C117" s="132"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="134">
+        <v>116</v>
+      </c>
+      <c r="C118" s="132"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="134">
+        <v>117</v>
+      </c>
+      <c r="C119" s="132"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="134">
+        <v>118</v>
+      </c>
+      <c r="C120" s="132"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="134">
+        <v>119</v>
+      </c>
+      <c r="C121" s="132"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="134">
+        <v>120</v>
+      </c>
+      <c r="C122" s="132"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="134">
+        <v>121</v>
+      </c>
+      <c r="C123" s="132"/>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="134">
+        <v>122</v>
+      </c>
+      <c r="C124" s="132"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="134">
+        <v>123</v>
+      </c>
+      <c r="C125" s="132"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="134">
+        <v>124</v>
+      </c>
+      <c r="C126" s="132"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="134">
+        <v>125</v>
+      </c>
+      <c r="C127" s="132"/>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="134">
+        <v>126</v>
+      </c>
+      <c r="C128" s="132"/>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="134">
+        <v>127</v>
+      </c>
+      <c r="C129" s="132"/>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="134">
+        <v>128</v>
+      </c>
+      <c r="C130" s="132"/>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="134">
+        <v>129</v>
+      </c>
+      <c r="C131" s="132"/>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="134">
+        <v>130</v>
+      </c>
+      <c r="C132" s="132"/>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="134">
+        <v>131</v>
+      </c>
+      <c r="C133" s="132"/>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="134">
+        <v>132</v>
+      </c>
+      <c r="C134" s="132"/>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" s="134">
+        <v>133</v>
+      </c>
+      <c r="C135" s="132"/>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="134">
+        <v>134</v>
+      </c>
+      <c r="C136" s="132"/>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="134">
+        <v>135</v>
+      </c>
+      <c r="C137" s="132"/>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="134">
+        <v>136</v>
+      </c>
+      <c r="C138" s="132"/>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="134">
+        <v>137</v>
+      </c>
+      <c r="C139" s="132"/>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="134">
+        <v>138</v>
+      </c>
+      <c r="C140" s="132"/>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="134">
+        <v>139</v>
+      </c>
+      <c r="C141" s="132"/>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="134">
+        <v>140</v>
+      </c>
+      <c r="C142" s="132"/>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="134">
+        <v>141</v>
+      </c>
+      <c r="C143" s="132"/>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="134">
+        <v>142</v>
+      </c>
+      <c r="C144" s="132"/>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="134">
+        <v>143</v>
+      </c>
+      <c r="C145" s="132"/>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="134">
+        <v>144</v>
+      </c>
+      <c r="C146" s="132"/>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="134">
+        <v>145</v>
+      </c>
+      <c r="C147" s="132"/>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="134">
+        <v>146</v>
+      </c>
+      <c r="C148" s="132"/>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="134">
+        <v>147</v>
+      </c>
+      <c r="C149" s="132"/>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="134">
+        <v>148</v>
+      </c>
+      <c r="C150" s="132"/>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="134">
+        <v>149</v>
+      </c>
+      <c r="C151" s="132"/>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="134">
+        <v>150</v>
+      </c>
+      <c r="C152" s="132"/>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="134">
+        <v>151</v>
+      </c>
+      <c r="C153" s="132"/>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="134">
+        <v>152</v>
+      </c>
+      <c r="C154" s="132"/>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="134">
+        <v>153</v>
+      </c>
+      <c r="C155" s="132"/>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="134">
+        <v>154</v>
+      </c>
+      <c r="C156" s="132"/>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="134">
+        <v>155</v>
+      </c>
+      <c r="C157" s="132"/>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="134">
+        <v>156</v>
+      </c>
+      <c r="C158" s="132"/>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="134">
+        <v>157</v>
+      </c>
+      <c r="C159" s="132"/>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="134">
+        <v>158</v>
+      </c>
+      <c r="C160" s="132"/>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="134">
+        <v>159</v>
+      </c>
+      <c r="C161" s="132"/>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="134">
+        <v>160</v>
+      </c>
+      <c r="C162" s="132"/>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="134">
+        <v>161</v>
+      </c>
+      <c r="C163" s="132"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="134">
+        <v>162</v>
+      </c>
+      <c r="C164" s="132"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="134">
+        <v>163</v>
+      </c>
+      <c r="C165" s="132"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="134">
+        <v>164</v>
+      </c>
+      <c r="C166" s="132"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="134">
+        <v>165</v>
+      </c>
+      <c r="C167" s="132"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="134">
+        <v>166</v>
+      </c>
+      <c r="C168" s="132"/>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="134">
+        <v>167</v>
+      </c>
+      <c r="C169" s="132"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="134">
+        <v>168</v>
+      </c>
+      <c r="C170" s="132"/>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="134">
+        <v>169</v>
+      </c>
+      <c r="C171" s="132"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="134">
+        <v>170</v>
+      </c>
+      <c r="C172" s="132"/>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="134">
+        <v>171</v>
+      </c>
+      <c r="C173" s="132"/>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" s="134">
+        <v>172</v>
+      </c>
+      <c r="C174" s="132"/>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="134">
+        <v>173</v>
+      </c>
+      <c r="C175" s="132"/>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="134">
+        <v>174</v>
+      </c>
+      <c r="C176" s="132"/>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="134">
+        <v>175</v>
+      </c>
+      <c r="C177" s="132"/>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" s="134">
+        <v>176</v>
+      </c>
+      <c r="C178" s="132"/>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" s="134">
+        <v>177</v>
+      </c>
+      <c r="C179" s="132"/>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180" s="134">
+        <v>178</v>
+      </c>
+      <c r="C180" s="132"/>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181" s="134">
+        <v>179</v>
+      </c>
+      <c r="C181" s="132"/>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" s="134">
+        <v>180</v>
+      </c>
+      <c r="C182" s="132"/>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="134">
+        <v>181</v>
+      </c>
+      <c r="C183" s="132"/>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" s="134">
+        <v>182</v>
+      </c>
+      <c r="C184" s="132"/>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" s="134">
+        <v>183</v>
+      </c>
+      <c r="C185" s="132"/>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="134">
+        <v>184</v>
+      </c>
+      <c r="C186" s="132"/>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187" s="134">
+        <v>185</v>
+      </c>
+      <c r="C187" s="132"/>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="B188" s="134">
+        <v>186</v>
+      </c>
+      <c r="C188" s="132"/>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="B189" s="134">
+        <v>187</v>
+      </c>
+      <c r="C189" s="132"/>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="B190" s="134">
+        <v>188</v>
+      </c>
+      <c r="C190" s="132"/>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="B191" s="134">
+        <v>189</v>
+      </c>
+      <c r="C191" s="132"/>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192" s="134">
+        <v>190</v>
+      </c>
+      <c r="C192" s="132"/>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="134">
+        <v>191</v>
+      </c>
+      <c r="C193" s="132"/>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" s="134">
+        <v>192</v>
+      </c>
+      <c r="C194" s="132"/>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="134">
+        <v>193</v>
+      </c>
+      <c r="C195" s="132"/>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" s="134">
+        <v>194</v>
+      </c>
+      <c r="C196" s="132"/>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" s="134">
+        <v>195</v>
+      </c>
+      <c r="C197" s="132"/>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" s="134">
+        <v>196</v>
+      </c>
+      <c r="C198" s="132"/>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" s="134">
+        <v>197</v>
+      </c>
+      <c r="C199" s="132"/>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" s="134">
+        <v>198</v>
+      </c>
+      <c r="C200" s="132"/>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" s="134">
+        <v>199</v>
+      </c>
+      <c r="C201" s="132"/>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" s="134">
+        <v>200</v>
+      </c>
+      <c r="C202" s="132"/>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" s="134">
+        <v>201</v>
+      </c>
+      <c r="C203" s="132"/>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="134">
+        <v>202</v>
+      </c>
+      <c r="C204" s="132"/>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" s="134">
+        <v>203</v>
+      </c>
+      <c r="C205" s="132"/>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" s="134">
+        <v>204</v>
+      </c>
+      <c r="C206" s="132"/>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" s="134">
+        <v>205</v>
+      </c>
+      <c r="C207" s="132"/>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" s="134">
+        <v>206</v>
+      </c>
+      <c r="C208" s="132"/>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="134">
+        <v>207</v>
+      </c>
+      <c r="C209" s="132"/>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="134">
+        <v>208</v>
+      </c>
+      <c r="C210" s="132"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="134">
+        <v>209</v>
+      </c>
+      <c r="C211" s="132"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="134">
+        <v>210</v>
+      </c>
+      <c r="C212" s="132"/>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="134">
+        <v>211</v>
+      </c>
+      <c r="C213" s="132"/>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="134">
+        <v>212</v>
+      </c>
+      <c r="C214" s="132"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="134">
+        <v>213</v>
+      </c>
+      <c r="C215" s="132"/>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="134">
+        <v>214</v>
+      </c>
+      <c r="C216" s="132"/>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="134">
+        <v>215</v>
+      </c>
+      <c r="C217" s="132"/>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="134">
+        <v>216</v>
+      </c>
+      <c r="C218" s="132"/>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="134">
+        <v>217</v>
+      </c>
+      <c r="C219" s="132"/>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="134">
+        <v>218</v>
+      </c>
+      <c r="C220" s="132"/>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="134">
+        <v>219</v>
+      </c>
+      <c r="C221" s="132"/>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="134">
+        <v>220</v>
+      </c>
+      <c r="C222" s="132"/>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223" s="134">
+        <v>221</v>
+      </c>
+      <c r="C223" s="132"/>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" s="134">
+        <v>222</v>
+      </c>
+      <c r="C224" s="132"/>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="134">
+        <v>223</v>
+      </c>
+      <c r="C225" s="132"/>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="134">
+        <v>224</v>
+      </c>
+      <c r="C226" s="132"/>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="134">
+        <v>225</v>
+      </c>
+      <c r="C227" s="132"/>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="134">
+        <v>226</v>
+      </c>
+      <c r="C228" s="132"/>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="134">
+        <v>227</v>
+      </c>
+      <c r="C229" s="132"/>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="134">
+        <v>228</v>
+      </c>
+      <c r="C230" s="132"/>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" s="134">
+        <v>229</v>
+      </c>
+      <c r="C231" s="132"/>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="134">
+        <v>230</v>
+      </c>
+      <c r="C232" s="132"/>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="134">
+        <v>231</v>
+      </c>
+      <c r="C233" s="132"/>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" s="134">
+        <v>232</v>
+      </c>
+      <c r="C234" s="132"/>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" s="134">
+        <v>233</v>
+      </c>
+      <c r="C235" s="132"/>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" s="134">
+        <v>234</v>
+      </c>
+      <c r="C236" s="132"/>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" s="134">
+        <v>235</v>
+      </c>
+      <c r="C237" s="132"/>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" s="134">
+        <v>236</v>
+      </c>
+      <c r="C238" s="132"/>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" s="134">
+        <v>237</v>
+      </c>
+      <c r="C239" s="132"/>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" s="134">
+        <v>238</v>
+      </c>
+      <c r="C240" s="132"/>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="134">
+        <v>239</v>
+      </c>
+      <c r="C241" s="132"/>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="134">
+        <v>240</v>
+      </c>
+      <c r="C242" s="132"/>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="134">
+        <v>241</v>
+      </c>
+      <c r="C243" s="132"/>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="134">
+        <v>242</v>
+      </c>
+      <c r="C244" s="132"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="134">
+        <v>243</v>
+      </c>
+      <c r="C245" s="132"/>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="134">
+        <v>244</v>
+      </c>
+      <c r="C246" s="132"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="134">
+        <v>245</v>
+      </c>
+      <c r="C247" s="132"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="134">
+        <v>246</v>
+      </c>
+      <c r="C248" s="132"/>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" s="134">
+        <v>247</v>
+      </c>
+      <c r="C249" s="132"/>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" s="134">
+        <v>248</v>
+      </c>
+      <c r="C250" s="132"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="134">
+        <v>249</v>
+      </c>
+      <c r="C251" s="132"/>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="134">
+        <v>250</v>
+      </c>
+      <c r="C252" s="132"/>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="134">
+        <v>251</v>
+      </c>
+      <c r="C253" s="132"/>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="134">
+        <v>252</v>
+      </c>
+      <c r="C254" s="132"/>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="134">
+        <v>253</v>
+      </c>
+      <c r="C255" s="132"/>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="134">
+        <v>254</v>
+      </c>
+      <c r="C256" s="132"/>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" s="134">
+        <v>255</v>
+      </c>
+      <c r="C257" s="132"/>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" s="134">
+        <v>256</v>
+      </c>
+      <c r="C258" s="132"/>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" s="134">
+        <v>257</v>
+      </c>
+      <c r="C259" s="132"/>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="134">
+        <v>258</v>
+      </c>
+      <c r="C260" s="132"/>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="134">
+        <v>259</v>
+      </c>
+      <c r="C261" s="132"/>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="134">
+        <v>260</v>
+      </c>
+      <c r="C262" s="132"/>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="134">
+        <v>261</v>
+      </c>
+      <c r="C263" s="132"/>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="134">
+        <v>262</v>
+      </c>
+      <c r="C264" s="132"/>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="134">
+        <v>263</v>
+      </c>
+      <c r="C265" s="132"/>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="134">
+        <v>264</v>
+      </c>
+      <c r="C266" s="132"/>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" s="134">
+        <v>265</v>
+      </c>
+      <c r="C267" s="132"/>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="134">
+        <v>266</v>
+      </c>
+      <c r="C268" s="132"/>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" s="134">
+        <v>267</v>
+      </c>
+      <c r="C269" s="132"/>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" s="134">
+        <v>268</v>
+      </c>
+      <c r="C270" s="132"/>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="B271" s="134">
+        <v>269</v>
+      </c>
+      <c r="C271" s="132"/>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="B272" s="134">
+        <v>270</v>
+      </c>
+      <c r="C272" s="132"/>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273" s="134">
+        <v>271</v>
+      </c>
+      <c r="C273" s="132"/>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="B274" s="134">
+        <v>272</v>
+      </c>
+      <c r="C274" s="132"/>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275" s="134">
+        <v>273</v>
+      </c>
+      <c r="C275" s="132"/>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="B276" s="134">
+        <v>274</v>
+      </c>
+      <c r="C276" s="132"/>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277" s="134">
+        <v>275</v>
+      </c>
+      <c r="C277" s="132"/>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="B278" s="134">
+        <v>276</v>
+      </c>
+      <c r="C278" s="132"/>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="B279" s="134">
+        <v>277</v>
+      </c>
+      <c r="C279" s="132"/>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="B280" s="134">
+        <v>278</v>
+      </c>
+      <c r="C280" s="132"/>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="B281" s="134">
+        <v>279</v>
+      </c>
+      <c r="C281" s="132"/>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="B282" s="134">
+        <v>280</v>
+      </c>
+      <c r="C282" s="132"/>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="B283" s="134">
+        <v>281</v>
+      </c>
+      <c r="C283" s="132"/>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="B284" s="134">
+        <v>282</v>
+      </c>
+      <c r="C284" s="132"/>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="B285" s="134">
+        <v>283</v>
+      </c>
+      <c r="C285" s="132"/>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="B286" s="134">
+        <v>284</v>
+      </c>
+      <c r="C286" s="132"/>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="B287" s="134">
+        <v>285</v>
+      </c>
+      <c r="C287" s="132"/>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="B288" s="134">
+        <v>286</v>
+      </c>
+      <c r="C288" s="132"/>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="B289" s="134">
+        <v>287</v>
+      </c>
+      <c r="C289" s="132"/>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" s="134">
+        <v>288</v>
+      </c>
+      <c r="C290" s="132"/>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="B291" s="134">
+        <v>289</v>
+      </c>
+      <c r="C291" s="132"/>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="B292" s="134">
+        <v>290</v>
+      </c>
+      <c r="C292" s="132"/>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="B293" s="134">
+        <v>291</v>
+      </c>
+      <c r="C293" s="132"/>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="B294" s="134">
+        <v>292</v>
+      </c>
+      <c r="C294" s="132"/>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="B295" s="134">
+        <v>293</v>
+      </c>
+      <c r="C295" s="132"/>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" s="134">
+        <v>294</v>
+      </c>
+      <c r="C296" s="132"/>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="B297" s="134">
+        <v>295</v>
+      </c>
+      <c r="C297" s="132"/>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="B298" s="134">
+        <v>296</v>
+      </c>
+      <c r="C298" s="132"/>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" s="134">
+        <v>297</v>
+      </c>
+      <c r="C299" s="132"/>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" s="134">
+        <v>298</v>
+      </c>
+      <c r="C300" s="132"/>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" s="134">
+        <v>299</v>
+      </c>
+      <c r="C301" s="132"/>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="B302" s="134">
+        <v>300</v>
+      </c>
+      <c r="C302" s="132"/>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="B303" s="134">
+        <v>301</v>
+      </c>
+      <c r="C303" s="132"/>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="B304" s="134">
+        <v>302</v>
+      </c>
+      <c r="C304" s="132"/>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" s="134">
+        <v>303</v>
+      </c>
+      <c r="C305" s="132"/>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" s="134">
+        <v>304</v>
+      </c>
+      <c r="C306" s="132"/>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" s="134">
+        <v>305</v>
+      </c>
+      <c r="C307" s="132"/>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" s="134">
+        <v>306</v>
+      </c>
+      <c r="C308" s="132"/>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" s="134">
+        <v>307</v>
+      </c>
+      <c r="C309" s="132"/>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" s="134">
+        <v>308</v>
+      </c>
+      <c r="C310" s="132"/>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" s="134">
+        <v>309</v>
+      </c>
+      <c r="C311" s="132"/>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" s="134">
+        <v>310</v>
+      </c>
+      <c r="C312" s="132"/>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="B313" s="134">
+        <v>311</v>
+      </c>
+      <c r="C313" s="132"/>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="B314" s="134">
+        <v>312</v>
+      </c>
+      <c r="C314" s="132"/>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="B315" s="134">
+        <v>313</v>
+      </c>
+      <c r="C315" s="132"/>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" s="134">
+        <v>314</v>
+      </c>
+      <c r="C316" s="132"/>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" s="134">
+        <v>315</v>
+      </c>
+      <c r="C317" s="132"/>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" s="134">
+        <v>316</v>
+      </c>
+      <c r="C318" s="132"/>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" s="134">
+        <v>317</v>
+      </c>
+      <c r="C319" s="132"/>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" s="134">
+        <v>318</v>
+      </c>
+      <c r="C320" s="132"/>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" s="134">
+        <v>319</v>
+      </c>
+      <c r="C321" s="132"/>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" s="134">
+        <v>320</v>
+      </c>
+      <c r="C322" s="132"/>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" s="134">
+        <v>321</v>
+      </c>
+      <c r="C323" s="132"/>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" s="134">
+        <v>322</v>
+      </c>
+      <c r="C324" s="132"/>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="134">
+        <v>323</v>
+      </c>
+      <c r="C325" s="132"/>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" s="134">
+        <v>324</v>
+      </c>
+      <c r="C326" s="132"/>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" s="134">
+        <v>325</v>
+      </c>
+      <c r="C327" s="132"/>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="134">
+        <v>326</v>
+      </c>
+      <c r="C328" s="132"/>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" s="134">
+        <v>327</v>
+      </c>
+      <c r="C329" s="132"/>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" s="134">
+        <v>328</v>
+      </c>
+      <c r="C330" s="132"/>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" s="134">
+        <v>329</v>
+      </c>
+      <c r="C331" s="132"/>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" s="134">
+        <v>330</v>
+      </c>
+      <c r="C332" s="132"/>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" s="134">
+        <v>331</v>
+      </c>
+      <c r="C333" s="132"/>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" s="134">
+        <v>332</v>
+      </c>
+      <c r="C334" s="132"/>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" s="134">
+        <v>333</v>
+      </c>
+      <c r="C335" s="132"/>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" s="134">
+        <v>334</v>
+      </c>
+      <c r="C336" s="132"/>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" s="134">
+        <v>335</v>
+      </c>
+      <c r="C337" s="132"/>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" s="134">
+        <v>336</v>
+      </c>
+      <c r="C338" s="132"/>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" s="134">
+        <v>337</v>
+      </c>
+      <c r="C339" s="132"/>
+    </row>
+    <row r="340" spans="2:3">
+      <c r="B340" s="134">
+        <v>338</v>
+      </c>
+      <c r="C340" s="132"/>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" s="134">
+        <v>339</v>
+      </c>
+      <c r="C341" s="132"/>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" s="134">
+        <v>340</v>
+      </c>
+      <c r="C342" s="132"/>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" s="134">
+        <v>341</v>
+      </c>
+      <c r="C343" s="132"/>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="B344" s="134">
+        <v>342</v>
+      </c>
+      <c r="C344" s="132"/>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" s="134">
+        <v>343</v>
+      </c>
+      <c r="C345" s="132"/>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" s="134">
+        <v>344</v>
+      </c>
+      <c r="C346" s="132"/>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" s="134">
+        <v>345</v>
+      </c>
+      <c r="C347" s="132"/>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="B348" s="134">
+        <v>346</v>
+      </c>
+      <c r="C348" s="132"/>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="B349" s="134">
+        <v>347</v>
+      </c>
+      <c r="C349" s="132"/>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="B350" s="134">
+        <v>348</v>
+      </c>
+      <c r="C350" s="132"/>
+    </row>
+    <row r="351" spans="2:3">
+      <c r="B351" s="134">
+        <v>349</v>
+      </c>
+      <c r="C351" s="132"/>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="B352" s="134">
+        <v>350</v>
+      </c>
+      <c r="C352" s="132"/>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="B353" s="134">
+        <v>351</v>
+      </c>
+      <c r="C353" s="132"/>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="B354" s="134">
+        <v>352</v>
+      </c>
+      <c r="C354" s="132"/>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="B355" s="134">
+        <v>353</v>
+      </c>
+      <c r="C355" s="132"/>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="B356" s="134">
+        <v>354</v>
+      </c>
+      <c r="C356" s="132"/>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="B357" s="134">
+        <v>355</v>
+      </c>
+      <c r="C357" s="132"/>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="B358" s="134">
+        <v>356</v>
+      </c>
+      <c r="C358" s="132"/>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" s="134">
+        <v>357</v>
+      </c>
+      <c r="C359" s="132"/>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="B360" s="134">
+        <v>358</v>
+      </c>
+      <c r="C360" s="132"/>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" s="134">
+        <v>359</v>
+      </c>
+      <c r="C361" s="132"/>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="B362" s="134">
+        <v>360</v>
+      </c>
+      <c r="C362" s="132"/>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="B363" s="134">
+        <v>361</v>
+      </c>
+      <c r="C363" s="132"/>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" s="134">
+        <v>362</v>
+      </c>
+      <c r="C364" s="132"/>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="B365" s="134">
+        <v>363</v>
+      </c>
+      <c r="C365" s="132"/>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="B366" s="134">
+        <v>364</v>
+      </c>
+      <c r="C366" s="132"/>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="B367" s="134">
+        <v>365</v>
+      </c>
+      <c r="C367" s="132"/>
+    </row>
+    <row r="368" spans="2:3">
+      <c r="B368" s="134">
+        <v>366</v>
+      </c>
+      <c r="C368" s="132"/>
+    </row>
+    <row r="369" spans="2:3">
+      <c r="B369" s="134">
+        <v>367</v>
+      </c>
+      <c r="C369" s="132"/>
+    </row>
+    <row r="370" spans="2:3">
+      <c r="B370" s="134">
+        <v>368</v>
+      </c>
+      <c r="C370" s="132"/>
+    </row>
+    <row r="371" spans="2:3">
+      <c r="B371" s="134">
+        <v>369</v>
+      </c>
+      <c r="C371" s="132"/>
+    </row>
+    <row r="372" spans="2:3">
+      <c r="B372" s="134">
+        <v>370</v>
+      </c>
+      <c r="C372" s="132"/>
+    </row>
+    <row r="373" spans="2:3">
+      <c r="B373" s="134">
+        <v>371</v>
+      </c>
+      <c r="C373" s="132"/>
+    </row>
+    <row r="374" spans="2:3">
+      <c r="B374" s="134">
+        <v>372</v>
+      </c>
+      <c r="C374" s="132"/>
+    </row>
+    <row r="375" spans="2:3">
+      <c r="B375" s="134">
+        <v>373</v>
+      </c>
+      <c r="C375" s="132"/>
+    </row>
+    <row r="376" spans="2:3">
+      <c r="B376" s="134">
+        <v>374</v>
+      </c>
+      <c r="C376" s="132"/>
+    </row>
+    <row r="377" spans="2:3">
+      <c r="B377" s="134">
+        <v>375</v>
+      </c>
+      <c r="C377" s="132"/>
+    </row>
+    <row r="378" spans="2:3">
+      <c r="B378" s="134">
+        <v>376</v>
+      </c>
+      <c r="C378" s="132"/>
+    </row>
+    <row r="379" spans="2:3">
+      <c r="B379" s="134">
+        <v>377</v>
+      </c>
+      <c r="C379" s="132"/>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" s="134">
+        <v>378</v>
+      </c>
+      <c r="C380" s="132"/>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="B381" s="134">
+        <v>379</v>
+      </c>
+      <c r="C381" s="132"/>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="B382" s="134">
+        <v>380</v>
+      </c>
+      <c r="C382" s="132"/>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="B383" s="134">
+        <v>381</v>
+      </c>
+      <c r="C383" s="132"/>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="B384" s="134">
+        <v>382</v>
+      </c>
+      <c r="C384" s="132"/>
+    </row>
+    <row r="385" spans="2:3">
+      <c r="B385" s="134">
+        <v>383</v>
+      </c>
+      <c r="C385" s="132"/>
+    </row>
+    <row r="386" spans="2:3">
+      <c r="B386" s="134">
+        <v>384</v>
+      </c>
+      <c r="C386" s="132"/>
+    </row>
+    <row r="387" spans="2:3">
+      <c r="B387" s="134">
+        <v>385</v>
+      </c>
+      <c r="C387" s="132"/>
+    </row>
+    <row r="388" spans="2:3">
+      <c r="B388" s="134">
+        <v>386</v>
+      </c>
+      <c r="C388" s="132"/>
+    </row>
+    <row r="389" spans="2:3">
+      <c r="B389" s="134">
+        <v>387</v>
+      </c>
+      <c r="C389" s="132"/>
+    </row>
+    <row r="390" spans="2:3">
+      <c r="B390" s="134">
+        <v>388</v>
+      </c>
+      <c r="C390" s="132"/>
+    </row>
+    <row r="391" spans="2:3">
+      <c r="B391" s="134">
+        <v>389</v>
+      </c>
+      <c r="C391" s="132"/>
+    </row>
+    <row r="392" spans="2:3">
+      <c r="B392" s="134">
+        <v>390</v>
+      </c>
+      <c r="C392" s="132"/>
+    </row>
+    <row r="393" spans="2:3">
+      <c r="B393" s="134">
+        <v>391</v>
+      </c>
+      <c r="C393" s="132"/>
+    </row>
+    <row r="394" spans="2:3">
+      <c r="B394" s="134">
+        <v>392</v>
+      </c>
+      <c r="C394" s="132"/>
+    </row>
+    <row r="395" spans="2:3">
+      <c r="B395" s="134">
+        <v>393</v>
+      </c>
+      <c r="C395" s="132"/>
+    </row>
+    <row r="396" spans="2:3">
+      <c r="B396" s="134">
+        <v>394</v>
+      </c>
+      <c r="C396" s="132"/>
+    </row>
+    <row r="397" spans="2:3">
+      <c r="B397" s="134">
+        <v>395</v>
+      </c>
+      <c r="C397" s="132"/>
+    </row>
+    <row r="398" spans="2:3">
+      <c r="B398" s="134">
+        <v>396</v>
+      </c>
+      <c r="C398" s="132"/>
+    </row>
+    <row r="399" spans="2:3">
+      <c r="B399" s="134">
+        <v>397</v>
+      </c>
+      <c r="C399" s="132"/>
+    </row>
+    <row r="400" spans="2:3">
+      <c r="B400" s="134">
+        <v>398</v>
+      </c>
+      <c r="C400" s="132"/>
+    </row>
+    <row r="401" spans="2:3">
+      <c r="B401" s="134">
+        <v>399</v>
+      </c>
+      <c r="C401" s="132"/>
+    </row>
+    <row r="402" spans="2:3">
+      <c r="B402" s="134">
+        <v>400</v>
+      </c>
+      <c r="C402" s="132"/>
+    </row>
+    <row r="403" spans="2:3">
+      <c r="B403" s="134">
+        <v>401</v>
+      </c>
+      <c r="C403" s="132"/>
+    </row>
+    <row r="404" spans="2:3">
+      <c r="B404" s="134">
+        <v>402</v>
+      </c>
+      <c r="C404" s="132"/>
+    </row>
+    <row r="405" spans="2:3">
+      <c r="B405" s="134">
+        <v>403</v>
+      </c>
+      <c r="C405" s="132"/>
+    </row>
+    <row r="406" spans="2:3">
+      <c r="B406" s="134">
+        <v>404</v>
+      </c>
+      <c r="C406" s="132"/>
+    </row>
+    <row r="407" spans="2:3">
+      <c r="B407" s="134">
+        <v>405</v>
+      </c>
+      <c r="C407" s="132"/>
+    </row>
+    <row r="408" spans="2:3">
+      <c r="B408" s="134">
+        <v>406</v>
+      </c>
+      <c r="C408" s="132"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -63180,7 +65661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
@@ -65880,11 +68361,11 @@
       <c r="J4" s="12"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -65895,21 +68376,21 @@
       </c>
       <c r="C7" s="110"/>
       <c r="D7" s="111"/>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="113"/>
+      <c r="G7" s="116"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="F8" s="112" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="108"/>
+      <c r="F8" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="113"/>
+      <c r="G8" s="116"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="109" t="s">
@@ -65917,17 +68398,17 @@
       </c>
       <c r="C9" s="110"/>
       <c r="D9" s="111"/>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="113"/>
+      <c r="G9" s="116"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="109" t="s">
@@ -65937,9 +68418,9 @@
       <c r="D11" s="111"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:J4">
@@ -65948,16 +68429,16 @@
     </sortState>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69389,27 +71870,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="119" t="str">
+      <c r="B2" s="117" t="str">
         <f>VLOOKUP(D3,武将!B:E,4,0)</f>
         <v>吕布</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
-      <c r="I2" s="119" t="str">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="118"/>
+      <c r="I2" s="117" t="str">
         <f>VLOOKUP(K3,武将!B:E,4,0)</f>
         <v>赵云</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="118"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="129" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="32" t="s">
@@ -69418,7 +71899,7 @@
       <c r="D3" s="40">
         <v>660</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="125" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="25" t="s">
@@ -69428,7 +71909,7 @@
         <f>INT((200+D12+D13)*(1+D4/10))</f>
         <v>436</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="129" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="32" t="s">
@@ -69437,7 +71918,7 @@
       <c r="K3" s="40">
         <v>395</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="125" t="s">
         <v>105</v>
       </c>
       <c r="M3" s="25" t="s">
@@ -69449,14 +71930,14 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="127"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="40">
         <v>1</v>
       </c>
-      <c r="E4" s="123"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="79" t="s">
         <v>2</v>
       </c>
@@ -69464,14 +71945,14 @@
         <f>INT(D12*1*(1+D4/10))+D19</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="127"/>
+      <c r="I4" s="130"/>
       <c r="J4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="40">
         <v>1</v>
       </c>
-      <c r="L4" s="123"/>
+      <c r="L4" s="126"/>
       <c r="M4" s="79" t="s">
         <v>2</v>
       </c>
@@ -69481,7 +71962,7 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="127"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="32" t="s">
         <v>91</v>
       </c>
@@ -69489,7 +71970,7 @@
         <f>VLOOKUP(D3,武将!B:E,4,0)</f>
         <v>吕布</v>
       </c>
-      <c r="E5" s="123"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="79" t="s">
         <v>938</v>
       </c>
@@ -69497,7 +71978,7 @@
         <f>INT(D12*0.7*(1+D4/10))+G24</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="127"/>
+      <c r="I5" s="130"/>
       <c r="J5" s="32" t="s">
         <v>91</v>
       </c>
@@ -69505,7 +71986,7 @@
         <f>VLOOKUP(K3,武将!B:E,4,0)</f>
         <v>赵云</v>
       </c>
-      <c r="L5" s="123"/>
+      <c r="L5" s="126"/>
       <c r="M5" s="79" t="s">
         <v>938</v>
       </c>
@@ -69515,7 +71996,7 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="127"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="32" t="s">
         <v>116</v>
       </c>
@@ -69523,7 +72004,7 @@
         <f>VLOOKUP(D3,武将!B:N,13,0)</f>
         <v>5</v>
       </c>
-      <c r="E6" s="123"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="79" t="s">
         <v>939</v>
       </c>
@@ -69531,7 +72012,7 @@
         <f>INT(D13*1.5*(1+D4/10))+D24</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="127"/>
+      <c r="I6" s="130"/>
       <c r="J6" s="32" t="s">
         <v>116</v>
       </c>
@@ -69539,7 +72020,7 @@
         <f>VLOOKUP(K3,武将!B:N,13,0)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="123"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="79" t="s">
         <v>939</v>
       </c>
@@ -69549,7 +72030,7 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="127"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="32" t="s">
         <v>24</v>
       </c>
@@ -69557,7 +72038,7 @@
         <f>VLOOKUP(D3,武将!B:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="123"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="79" t="s">
         <v>940</v>
       </c>
@@ -69565,7 +72046,7 @@
         <f>INT(D13*1*(1+D4/10))+G19</f>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="127"/>
+      <c r="I7" s="130"/>
       <c r="J7" s="32" t="s">
         <v>24</v>
       </c>
@@ -69573,7 +72054,7 @@
         <f>VLOOKUP(K3,武将!B:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="123"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="79" t="s">
         <v>940</v>
       </c>
@@ -69583,7 +72064,7 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="127"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="32" t="s">
         <v>92</v>
       </c>
@@ -69591,7 +72072,7 @@
         <f>VLOOKUP(D7,职业!B:C,2,0)</f>
         <v>将军</v>
       </c>
-      <c r="E8" s="123"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="79" t="s">
         <v>941</v>
       </c>
@@ -69599,7 +72080,7 @@
         <f>INT(D14*1.2*(1+D4/10))+G14</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="127"/>
+      <c r="I8" s="130"/>
       <c r="J8" s="32" t="s">
         <v>92</v>
       </c>
@@ -69607,7 +72088,7 @@
         <f>VLOOKUP(K7,职业!B:C,2,0)</f>
         <v>将军</v>
       </c>
-      <c r="L8" s="123"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="79" t="s">
         <v>941</v>
       </c>
@@ -69617,7 +72098,7 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="127"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="32" t="s">
         <v>19</v>
       </c>
@@ -69625,7 +72106,7 @@
         <f>VLOOKUP(D3,武将!B:D,3,0)</f>
         <v>19</v>
       </c>
-      <c r="E9" s="124"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="79" t="s">
         <v>942</v>
       </c>
@@ -69633,7 +72114,7 @@
         <f>INT(D14*0.8*(1+D4/10))+G29</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="127"/>
+      <c r="I9" s="130"/>
       <c r="J9" s="32" t="s">
         <v>19</v>
       </c>
@@ -69641,7 +72122,7 @@
         <f>VLOOKUP(K3,武将!B:D,3,0)</f>
         <v>12</v>
       </c>
-      <c r="L9" s="124"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="79" t="s">
         <v>942</v>
       </c>
@@ -69651,7 +72132,7 @@
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="127"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="32" t="s">
         <v>93</v>
       </c>
@@ -69659,7 +72140,7 @@
         <f>VLOOKUP(D9,绝技!B:C,2,0)</f>
         <v>无双乱舞</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="121" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="23" t="s">
@@ -69668,7 +72149,7 @@
       <c r="G10" s="40">
         <v>0</v>
       </c>
-      <c r="I10" s="127"/>
+      <c r="I10" s="130"/>
       <c r="J10" s="32" t="s">
         <v>93</v>
       </c>
@@ -69676,7 +72157,7 @@
         <f>VLOOKUP(K9,绝技!B:C,2,0)</f>
         <v>一身是胆</v>
       </c>
-      <c r="L10" s="118" t="s">
+      <c r="L10" s="121" t="s">
         <v>103</v>
       </c>
       <c r="M10" s="23" t="s">
@@ -69687,7 +72168,7 @@
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="127"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="32" t="s">
         <v>57</v>
       </c>
@@ -69695,14 +72176,14 @@
         <f>VLOOKUP(D9,绝技!B:C,3,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="118"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="40">
         <v>100</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="130"/>
       <c r="J11" s="32" t="s">
         <v>57</v>
       </c>
@@ -69710,7 +72191,7 @@
         <f>VLOOKUP(K9,绝技!B:C,3,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="L11" s="118"/>
+      <c r="L11" s="121"/>
       <c r="M11" s="23" t="s">
         <v>1</v>
       </c>
@@ -69719,7 +72200,7 @@
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="127"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="78" t="s">
         <v>137</v>
       </c>
@@ -69727,7 +72208,7 @@
         <f>VLOOKUP(D3,武将!B:H,7,0)</f>
         <v>97</v>
       </c>
-      <c r="E12" s="118"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="23" t="s">
         <v>4</v>
       </c>
@@ -69735,7 +72216,7 @@
         <f>VLOOKUP(G10,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="127"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="78" t="s">
         <v>137</v>
       </c>
@@ -69743,7 +72224,7 @@
         <f>VLOOKUP(K3,武将!B:H,7,0)</f>
         <v>96</v>
       </c>
-      <c r="L12" s="118"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="23" t="s">
         <v>4</v>
       </c>
@@ -69753,7 +72234,7 @@
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="127"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="78" t="s">
         <v>139</v>
       </c>
@@ -69761,7 +72242,7 @@
         <f>VLOOKUP(D3,武将!B:I,8,0)</f>
         <v>100</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="23" t="s">
         <v>97</v>
       </c>
@@ -69769,7 +72250,7 @@
         <f>VLOOKUP(G10,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="127"/>
+      <c r="I13" s="130"/>
       <c r="J13" s="78" t="s">
         <v>139</v>
       </c>
@@ -69777,7 +72258,7 @@
         <f>VLOOKUP(K3,武将!B:I,8,0)</f>
         <v>96</v>
       </c>
-      <c r="L13" s="118"/>
+      <c r="L13" s="121"/>
       <c r="M13" s="23" t="s">
         <v>97</v>
       </c>
@@ -69787,7 +72268,7 @@
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="78" t="s">
         <v>138</v>
       </c>
@@ -69795,7 +72276,7 @@
         <f>VLOOKUP(D3,武将!B:J,9,0)</f>
         <v>36</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="23" t="s">
         <v>107</v>
       </c>
@@ -69803,7 +72284,7 @@
         <f>G13*(G11+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="128"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="78" t="s">
         <v>138</v>
       </c>
@@ -69811,7 +72292,7 @@
         <f>VLOOKUP(K3,武将!B:J,9,0)</f>
         <v>77</v>
       </c>
-      <c r="L14" s="118"/>
+      <c r="L14" s="121"/>
       <c r="M14" s="23" t="s">
         <v>107</v>
       </c>
@@ -69821,7 +72302,7 @@
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="128" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -69830,7 +72311,7 @@
       <c r="D15" s="40">
         <v>0</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="119" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -69839,7 +72320,7 @@
       <c r="G15" s="40">
         <v>0</v>
       </c>
-      <c r="I15" s="125" t="s">
+      <c r="I15" s="128" t="s">
         <v>96</v>
       </c>
       <c r="J15" s="27" t="s">
@@ -69848,7 +72329,7 @@
       <c r="K15" s="40">
         <v>0</v>
       </c>
-      <c r="L15" s="117" t="s">
+      <c r="L15" s="119" t="s">
         <v>101</v>
       </c>
       <c r="M15" s="25" t="s">
@@ -69859,28 +72340,28 @@
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="125"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="40">
         <v>100</v>
       </c>
-      <c r="E16" s="117"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="40">
         <v>100</v>
       </c>
-      <c r="I16" s="125"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="27" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="40">
         <v>100</v>
       </c>
-      <c r="L16" s="117"/>
+      <c r="L16" s="119"/>
       <c r="M16" s="25" t="s">
         <v>1</v>
       </c>
@@ -69889,7 +72370,7 @@
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="125"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="27" t="s">
         <v>4</v>
       </c>
@@ -69897,7 +72378,7 @@
         <f>VLOOKUP(D15,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="117"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="25" t="s">
         <v>4</v>
       </c>
@@ -69905,7 +72386,7 @@
         <f>VLOOKUP(G15,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="125"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="27" t="s">
         <v>4</v>
       </c>
@@ -69913,7 +72394,7 @@
         <f>VLOOKUP(K15,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="117"/>
+      <c r="L17" s="119"/>
       <c r="M17" s="25" t="s">
         <v>4</v>
       </c>
@@ -69923,7 +72404,7 @@
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="125"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="27" t="s">
         <v>97</v>
       </c>
@@ -69931,7 +72412,7 @@
         <f>VLOOKUP(D15,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="117"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="25" t="s">
         <v>97</v>
       </c>
@@ -69939,7 +72420,7 @@
         <f>VLOOKUP(G15,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="125"/>
+      <c r="I18" s="128"/>
       <c r="J18" s="27" t="s">
         <v>97</v>
       </c>
@@ -69947,7 +72428,7 @@
         <f>VLOOKUP(K15,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="117"/>
+      <c r="L18" s="119"/>
       <c r="M18" s="25" t="s">
         <v>97</v>
       </c>
@@ -69957,7 +72438,7 @@
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="125"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="27" t="s">
         <v>94</v>
       </c>
@@ -69965,7 +72446,7 @@
         <f>D18*(D16+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="25" t="s">
         <v>108</v>
       </c>
@@ -69973,7 +72454,7 @@
         <f>G18*(G16+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="I19" s="125"/>
+      <c r="I19" s="128"/>
       <c r="J19" s="27" t="s">
         <v>94</v>
       </c>
@@ -69981,7 +72462,7 @@
         <f>K18*(K16+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="L19" s="117"/>
+      <c r="L19" s="119"/>
       <c r="M19" s="25" t="s">
         <v>108</v>
       </c>
@@ -69991,7 +72472,7 @@
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -70000,7 +72481,7 @@
       <c r="D20" s="40">
         <v>0</v>
       </c>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="121" t="s">
         <v>100</v>
       </c>
       <c r="F20" s="23" t="s">
@@ -70009,7 +72490,7 @@
       <c r="G20" s="40">
         <v>0</v>
       </c>
-      <c r="I20" s="117" t="s">
+      <c r="I20" s="119" t="s">
         <v>98</v>
       </c>
       <c r="J20" s="25" t="s">
@@ -70018,7 +72499,7 @@
       <c r="K20" s="40">
         <v>0</v>
       </c>
-      <c r="L20" s="118" t="s">
+      <c r="L20" s="121" t="s">
         <v>100</v>
       </c>
       <c r="M20" s="23" t="s">
@@ -70029,28 +72510,28 @@
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="117"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="40">
         <v>100</v>
       </c>
-      <c r="E21" s="118"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="40">
         <v>100</v>
       </c>
-      <c r="I21" s="117"/>
+      <c r="I21" s="119"/>
       <c r="J21" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K21" s="40">
         <v>100</v>
       </c>
-      <c r="L21" s="118"/>
+      <c r="L21" s="121"/>
       <c r="M21" s="23" t="s">
         <v>1</v>
       </c>
@@ -70059,7 +72540,7 @@
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="25" t="s">
         <v>4</v>
       </c>
@@ -70067,7 +72548,7 @@
         <f>VLOOKUP(D20,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="118"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="23" t="s">
         <v>4</v>
       </c>
@@ -70075,7 +72556,7 @@
         <f>VLOOKUP(G20,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I22" s="117"/>
+      <c r="I22" s="119"/>
       <c r="J22" s="25" t="s">
         <v>4</v>
       </c>
@@ -70083,7 +72564,7 @@
         <f>VLOOKUP(K20,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L22" s="118"/>
+      <c r="L22" s="121"/>
       <c r="M22" s="23" t="s">
         <v>4</v>
       </c>
@@ -70093,7 +72574,7 @@
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="25" t="s">
         <v>97</v>
       </c>
@@ -70101,7 +72582,7 @@
         <f>VLOOKUP(D20,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="118"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="23" t="s">
         <v>97</v>
       </c>
@@ -70109,7 +72590,7 @@
         <f>VLOOKUP(G20,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I23" s="117"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="25" t="s">
         <v>97</v>
       </c>
@@ -70117,7 +72598,7 @@
         <f>VLOOKUP(K20,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L23" s="118"/>
+      <c r="L23" s="121"/>
       <c r="M23" s="23" t="s">
         <v>97</v>
       </c>
@@ -70127,7 +72608,7 @@
       </c>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="25" t="s">
         <v>104</v>
       </c>
@@ -70135,7 +72616,7 @@
         <f>D23*(D21+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="118"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="23" t="s">
         <v>109</v>
       </c>
@@ -70143,7 +72624,7 @@
         <f>G23*(G21+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="I24" s="117"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="25" t="s">
         <v>104</v>
       </c>
@@ -70151,7 +72632,7 @@
         <f>K23*(K21+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="L24" s="118"/>
+      <c r="L24" s="121"/>
       <c r="M24" s="23" t="s">
         <v>109</v>
       </c>
@@ -70161,7 +72642,7 @@
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="121" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="23" t="s">
@@ -70170,7 +72651,7 @@
       <c r="D25" s="40">
         <v>0</v>
       </c>
-      <c r="E25" s="117" t="s">
+      <c r="E25" s="119" t="s">
         <v>102</v>
       </c>
       <c r="F25" s="25" t="s">
@@ -70179,7 +72660,7 @@
       <c r="G25" s="40">
         <v>0</v>
       </c>
-      <c r="I25" s="118" t="s">
+      <c r="I25" s="121" t="s">
         <v>99</v>
       </c>
       <c r="J25" s="23" t="s">
@@ -70188,7 +72669,7 @@
       <c r="K25" s="40">
         <v>0</v>
       </c>
-      <c r="L25" s="117" t="s">
+      <c r="L25" s="119" t="s">
         <v>102</v>
       </c>
       <c r="M25" s="25" t="s">
@@ -70199,28 +72680,28 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="118"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="40">
         <v>100</v>
       </c>
-      <c r="E26" s="117"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="40">
         <v>100</v>
       </c>
-      <c r="I26" s="118"/>
+      <c r="I26" s="121"/>
       <c r="J26" s="23" t="s">
         <v>1</v>
       </c>
       <c r="K26" s="40">
         <v>100</v>
       </c>
-      <c r="L26" s="117"/>
+      <c r="L26" s="119"/>
       <c r="M26" s="25" t="s">
         <v>1</v>
       </c>
@@ -70229,7 +72710,7 @@
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="118"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="23" t="s">
         <v>4</v>
       </c>
@@ -70237,7 +72718,7 @@
         <f>VLOOKUP(D25,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E27" s="117"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="25" t="s">
         <v>4</v>
       </c>
@@ -70245,7 +72726,7 @@
         <f>VLOOKUP(G25,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I27" s="118"/>
+      <c r="I27" s="121"/>
       <c r="J27" s="23" t="s">
         <v>4</v>
       </c>
@@ -70253,7 +72734,7 @@
         <f>VLOOKUP(K25,装备!B:C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L27" s="117"/>
+      <c r="L27" s="119"/>
       <c r="M27" s="25" t="s">
         <v>4</v>
       </c>
@@ -70263,7 +72744,7 @@
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="118"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="23" t="s">
         <v>97</v>
       </c>
@@ -70271,7 +72752,7 @@
         <f>VLOOKUP(D25,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E28" s="117"/>
+      <c r="E28" s="119"/>
       <c r="F28" s="25" t="s">
         <v>97</v>
       </c>
@@ -70279,7 +72760,7 @@
         <f>VLOOKUP(G25,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I28" s="118"/>
+      <c r="I28" s="121"/>
       <c r="J28" s="23" t="s">
         <v>97</v>
       </c>
@@ -70287,7 +72768,7 @@
         <f>VLOOKUP(K25,装备!B:E,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" s="117"/>
+      <c r="L28" s="119"/>
       <c r="M28" s="25" t="s">
         <v>97</v>
       </c>
@@ -70297,7 +72778,7 @@
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="118"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="23" t="s">
         <v>106</v>
       </c>
@@ -70305,7 +72786,7 @@
         <f>D28*(D26+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="E29" s="117"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="25" t="s">
         <v>110</v>
       </c>
@@ -70313,7 +72794,7 @@
         <f>G28*(G26+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="I29" s="118"/>
+      <c r="I29" s="121"/>
       <c r="J29" s="23" t="s">
         <v>106</v>
       </c>
@@ -70321,7 +72802,7 @@
         <f>K28*(K26+10)</f>
         <v>#N/A</v>
       </c>
-      <c r="L29" s="117"/>
+      <c r="L29" s="119"/>
       <c r="M29" s="25" t="s">
         <v>110</v>
       </c>
@@ -70331,22 +72812,22 @@
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="C31" s="119" t="str">
+      <c r="C31" s="117" t="str">
         <f>D5&amp;" 攻击 "&amp;K5</f>
         <v>吕布 攻击 赵云</v>
       </c>
-      <c r="D31" s="121"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="20" t="s">
         <v>111</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="119" t="str">
+      <c r="J31" s="117" t="str">
         <f>K5&amp;" 攻击 "&amp;D5</f>
         <v>赵云 攻击 吕布</v>
       </c>
-      <c r="K31" s="121"/>
+      <c r="K31" s="118"/>
       <c r="L31" s="22" t="s">
         <v>111</v>
       </c>
@@ -70355,7 +72836,7 @@
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="C32" s="117" t="s">
+      <c r="C32" s="119" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="26" t="s">
@@ -70369,7 +72850,7 @@
         <f>N3+E32</f>
         <v>#N/A</v>
       </c>
-      <c r="J32" s="117" t="s">
+      <c r="J32" s="119" t="s">
         <v>2</v>
       </c>
       <c r="K32" s="26" t="s">
@@ -70385,7 +72866,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="C33" s="117"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="26" t="s">
         <v>9</v>
       </c>
@@ -70397,7 +72878,7 @@
         <f>N3+E33</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="117"/>
+      <c r="J33" s="119"/>
       <c r="K33" s="26" t="s">
         <v>9</v>
       </c>
@@ -70411,7 +72892,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="120" t="s">
         <v>939</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -70425,7 +72906,7 @@
         <f>N3+E34</f>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="129" t="s">
+      <c r="J34" s="120" t="s">
         <v>939</v>
       </c>
       <c r="K34" s="24" t="s">
@@ -70441,7 +72922,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="C35" s="118"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="24" t="s">
         <v>9</v>
       </c>
@@ -70453,7 +72934,7 @@
         <f>N3+E35</f>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="118"/>
+      <c r="J35" s="121"/>
       <c r="K35" s="24" t="s">
         <v>9</v>
       </c>
@@ -70467,7 +72948,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="C36" s="130" t="s">
+      <c r="C36" s="122" t="s">
         <v>941</v>
       </c>
       <c r="D36" s="82" t="s">
@@ -70481,7 +72962,7 @@
         <f>N3+E36</f>
         <v>#N/A</v>
       </c>
-      <c r="J36" s="130" t="s">
+      <c r="J36" s="122" t="s">
         <v>941</v>
       </c>
       <c r="K36" s="82" t="s">
@@ -70497,7 +72978,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="C37" s="131"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="82" t="s">
         <v>9</v>
       </c>
@@ -70509,7 +72990,7 @@
         <f>N3+E37</f>
         <v>#N/A</v>
       </c>
-      <c r="J37" s="131"/>
+      <c r="J37" s="123"/>
       <c r="K37" s="82" t="s">
         <v>9</v>
       </c>
@@ -70547,14 +73028,16 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="28">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="L3:L9"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="I3:I14"/>
     <mergeCell ref="E25:E29"/>
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="B2:G2"/>
@@ -70565,16 +73048,14 @@
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="B3:B14"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="L3:L9"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="I3:I14"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
